--- a/va_facility_data_2025-02-20/Southeast Tucson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Southeast%20Tucson%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Southeast Tucson VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Southeast%20Tucson%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra1fd2d3d7c3447769f09ea45f75dce60"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R13ba32786f404824824db6e5fa0b2f86"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2a82adce26ea43e5b15db1255dfae1b1"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Reb688faa799e45c6bd6bfdeaa6255bfb"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5c35407b7248424cb984ea4228edb312"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R186b811dcc8c41cbaf5269aa3d021626"/>
   </x:sheets>
 </x:workbook>
 </file>
